--- a/xlsx/_baidu_莱州_intext.xlsx
+++ b/xlsx/_baidu_莱州_intext.xlsx
@@ -1403,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
